--- a/参考資料/初期データ_ver1.xlsx
+++ b/参考資料/初期データ_ver1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m-matsuka\Desktop\GitHub_クローン\company_evaluation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m-matsuka\Desktop\GitHub_クローン\company_evaluation\参考資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9AAE7B-BBFB-4AA2-83EF-ACE61E61ED9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7F646D-7D99-4A0B-93CE-B29E2CF06C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="737" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="737" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TM_point（ポイントテーブル）" sheetId="2" r:id="rId1"/>
@@ -51,11 +51,11 @@
     <rPh sb="14" eb="16">
       <t>シュトク</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>C</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>CC010</t>
@@ -74,7 +74,7 @@
     <rPh sb="6" eb="7">
       <t>シャ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>CC009</t>
@@ -96,7 +96,7 @@
     <rPh sb="14" eb="16">
       <t>カイメ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>CC008</t>
@@ -118,7 +118,7 @@
     <rPh sb="14" eb="16">
       <t>カイメ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>CC007</t>
@@ -140,7 +140,7 @@
     <rPh sb="14" eb="16">
       <t>カイメ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>CC006</t>
@@ -162,7 +162,7 @@
     <rPh sb="9" eb="11">
       <t>カクトク</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>CC005</t>
@@ -175,7 +175,7 @@
     <rPh sb="3" eb="5">
       <t>ハンロ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>CC004</t>
@@ -209,7 +209,7 @@
     <rPh sb="22" eb="24">
       <t>カクチョウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>CC003</t>
@@ -234,14 +234,14 @@
     <rPh sb="33" eb="35">
       <t>シキ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>CC002</t>
   </si>
   <si>
     <t>企画（要承認）出欠確認、店などとの交渉、司会運営、集金や支払い</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>社内勉強会と社内イベントの両方を各1回以上実施　</t>
@@ -269,11 +269,11 @@
     <rPh sb="21" eb="23">
       <t>ジッシ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>CC001</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>ITサービズマネージャ・ETECクラス１　500点以上</t>
@@ -283,52 +283,52 @@
     <rPh sb="25" eb="27">
       <t>イジョウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Q</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>M</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>プロジェクトマネージャー</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>システムアーキテクト</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>ITストラテジスト</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>情報セキュリティマネジメント</t>
     <rPh sb="0" eb="2">
       <t>ジョウホウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>TOEIC600以上　or　N1</t>
     <rPh sb="8" eb="10">
       <t>イジョウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>T</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>TOEIC300以上　or　N2</t>
     <rPh sb="8" eb="10">
       <t>イジョウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>MCP各種のうち1種</t>
@@ -338,11 +338,11 @@
     <rPh sb="9" eb="10">
       <t>シュ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>１種1pt2種2pt3種コンプリート</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>別紙３種（言語、OS、DBなど）で合計145点以上</t>
@@ -364,14 +364,14 @@
     <rPh sb="23" eb="25">
       <t>イジョウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>いずれか１つ</t>
   </si>
   <si>
     <t>ネットワークスペシャリスト・データベーススペシャリスト・ エンベデッドシステムスペシャリスト</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>CCNA</t>
@@ -381,7 +381,7 @@
     <rPh sb="6" eb="8">
       <t>ホウガン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>応用情報</t>
@@ -391,11 +391,11 @@
     <rPh sb="2" eb="4">
       <t>ジョウホウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>TL002を包含</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>基本情報</t>
@@ -405,7 +405,7 @@
     <rPh sb="2" eb="4">
       <t>ジョウホウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>ITパスポート</t>
@@ -424,11 +424,11 @@
     <rPh sb="3" eb="5">
       <t>カカリチョウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>J</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>配下に主任を2名持った</t>
@@ -444,7 +444,7 @@
     <rPh sb="8" eb="9">
       <t>モ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>現場を跨いで5名の社員を面倒見るリーダー</t>
@@ -466,7 +466,7 @@
     <rPh sb="14" eb="15">
       <t>ミ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>自分のチームで3名以上の部下を持った</t>
@@ -485,7 +485,7 @@
     <rPh sb="15" eb="16">
       <t>モ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>自分のチームで1名の部下を持った</t>
@@ -501,7 +501,7 @@
     <rPh sb="13" eb="14">
       <t>モ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>CLの仕事でPM経験1回　</t>
@@ -514,7 +514,7 @@
     <rPh sb="11" eb="12">
       <t>カイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>CLの仕事でPL経験2回　</t>
@@ -527,11 +527,11 @@
     <rPh sb="11" eb="12">
       <t>カイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>TC005との選択</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>PGのみの経験15年（経歴書ベース自己申告）</t>
@@ -550,7 +550,7 @@
     <rPh sb="19" eb="21">
       <t>シンコク</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>基本設計（UML等の）知識必須、SEPGの期間もSEとみなす　</t>
@@ -575,7 +575,7 @@
     <rPh sb="17" eb="19">
       <t>シンコク</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>テスター含まない出来ると言った結果出来なかったら剥奪</t>
@@ -600,7 +600,7 @@
     <rPh sb="17" eb="19">
       <t>シンコク</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>35歳までに技術経験12年　</t>
@@ -616,7 +616,7 @@
     <rPh sb="12" eb="13">
       <t>ネン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>30歳までに勤続10年になった(中途採用の方は30歳＋ITパスポート取得）</t>
@@ -644,7 +644,7 @@
     <rPh sb="34" eb="36">
       <t>シュトク</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>高卒で通算24か月実務稼働</t>
@@ -663,92 +663,92 @@
     <rPh sb="11" eb="13">
       <t>カドウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>●</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>主キー</t>
     <rPh sb="0" eb="1">
       <t>シュ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>not null 制約</t>
     <rPh sb="9" eb="11">
       <t>セイヤク</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>桁数</t>
     <rPh sb="0" eb="2">
       <t>ケタスウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>note</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Expt</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>pt</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>detail</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>jq_kbn</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>tm_kbn</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>title_cd</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>カラム名</t>
     <rPh sb="3" eb="4">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>備考</t>
     <rPh sb="0" eb="2">
       <t>ビコウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>上位ポイント</t>
     <rPh sb="0" eb="2">
       <t>ジョウイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>ポイント</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>内容</t>
     <rPh sb="0" eb="2">
       <t>ナイヨウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>業資区分</t>
@@ -761,7 +761,7 @@
     <rPh sb="2" eb="4">
       <t>クブン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>技管区分</t>
@@ -774,89 +774,89 @@
     <rPh sb="2" eb="4">
       <t>クブン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>タイトル区分</t>
     <rPh sb="4" eb="6">
       <t>クブン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>論理名</t>
     <rPh sb="0" eb="3">
       <t>ロンリメイ</t>
     </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ランク</t>
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>ランク</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>L1</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>L2</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>L3</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>L4</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>L5</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>削除サイン</t>
     <rPh sb="0" eb="2">
       <t>サクジョ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>等級</t>
     <rPh sb="0" eb="2">
       <t>トウキュウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>rank</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>class</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>salary</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>del_flg</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>給与</t>
     <rPh sb="0" eb="2">
       <t>キュウヨ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>基本ポイント</t>
     <rPh sb="0" eb="2">
       <t>キホン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>業務連絡を受けた時に素早く応答できた。</t>
@@ -878,7 +878,7 @@
     <rPh sb="13" eb="15">
       <t>オウトウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>速やかに上司に報告できた。</t>
@@ -891,7 +891,7 @@
     <rPh sb="7" eb="9">
       <t>ホウコク</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>勤怠就業態度のクレームが有った</t>
@@ -907,14 +907,14 @@
     <rPh sb="12" eb="13">
       <t>ア</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>スキル不足のクレームがあった</t>
     <rPh sb="3" eb="5">
       <t>フソク</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>7.8.で懲戒処分を受けた</t>
@@ -927,11 +927,11 @@
     <rPh sb="10" eb="11">
       <t>ウ</t>
     </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>スキルアップor自己啓発</t>
     <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>スキルアップor自己啓発</t>
-    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>社内イベント(勉強会等)の企画・運営できた。　</t>
@@ -950,7 +950,7 @@
     <rPh sb="16" eb="18">
       <t>ウンエイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>評価項目</t>
@@ -960,23 +960,23 @@
     <rPh sb="2" eb="4">
       <t>コウモク</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>No</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>self_check</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>no</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>SC001</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>SC002</t>
@@ -991,113 +991,122 @@
     <t>SC005</t>
   </si>
   <si>
-    <t>SC006</t>
-  </si>
-  <si>
-    <t>SC007</t>
-  </si>
-  <si>
-    <t>SC008</t>
-  </si>
-  <si>
     <t>TJ001</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>TJ002</t>
+  </si>
+  <si>
+    <t>TJ003</t>
+  </si>
+  <si>
+    <t>TJ004</t>
+  </si>
+  <si>
+    <t>TJ005</t>
+  </si>
+  <si>
+    <t>TJ006</t>
+  </si>
+  <si>
+    <t>TJ007</t>
+  </si>
+  <si>
+    <t>TJ008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MJ001 </t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>MJ002</t>
+  </si>
+  <si>
+    <t>MJ003</t>
+  </si>
+  <si>
+    <t>MJ004</t>
+  </si>
+  <si>
+    <t>MJ005</t>
+  </si>
+  <si>
+    <t>TQ001</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>TQ002</t>
+  </si>
+  <si>
+    <t>TQ003</t>
+  </si>
+  <si>
+    <t>TQ004</t>
+  </si>
+  <si>
+    <t>TQ005</t>
+  </si>
+  <si>
+    <t>TQ006</t>
+  </si>
+  <si>
+    <t>TQ007</t>
+  </si>
+  <si>
+    <t>TQ008</t>
+  </si>
+  <si>
+    <t>TQ009</t>
+  </si>
+  <si>
+    <t>TQ010</t>
+  </si>
+  <si>
+    <t>MQ001</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>MQ002</t>
+  </si>
+  <si>
+    <t>MQ003</t>
+  </si>
+  <si>
+    <t>MQ004</t>
+  </si>
+  <si>
+    <t>MQ005</t>
+  </si>
+  <si>
+    <t>SC999</t>
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>TJ002</t>
-  </si>
-  <si>
-    <t>TJ003</t>
-  </si>
-  <si>
-    <t>TJ004</t>
-  </si>
-  <si>
-    <t>TJ005</t>
-  </si>
-  <si>
-    <t>TJ006</t>
-  </si>
-  <si>
-    <t>TJ007</t>
-  </si>
-  <si>
-    <t>TJ008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MJ001 </t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>MJ002</t>
-  </si>
-  <si>
-    <t>MJ003</t>
-  </si>
-  <si>
-    <t>MJ004</t>
-  </si>
-  <si>
-    <t>MJ005</t>
-  </si>
-  <si>
-    <t>TQ001</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>TQ002</t>
-  </si>
-  <si>
-    <t>TQ003</t>
-  </si>
-  <si>
-    <t>TQ004</t>
-  </si>
-  <si>
-    <t>TQ005</t>
-  </si>
-  <si>
-    <t>TQ006</t>
-  </si>
-  <si>
-    <t>TQ007</t>
-  </si>
-  <si>
-    <t>TQ008</t>
-  </si>
-  <si>
-    <t>TQ009</t>
-  </si>
-  <si>
-    <t>TQ010</t>
-  </si>
-  <si>
-    <t>MQ001</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>MQ002</t>
-  </si>
-  <si>
-    <t>MQ003</t>
-  </si>
-  <si>
-    <t>MQ004</t>
-  </si>
-  <si>
-    <t>MQ005</t>
+    <t>SC997</t>
+  </si>
+  <si>
+    <t>SC998</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1201,77 +1210,80 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1559,8 +1571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{056D677A-F5F3-4C2E-AF25-352318D6DAE3}">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1704,7 +1716,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="B7" s="19" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>30</v>
@@ -1728,7 +1740,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="B8" s="19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>30</v>
@@ -1752,7 +1764,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="B9" s="19" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>30</v>
@@ -1776,7 +1788,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="B10" s="19" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>30</v>
@@ -1802,7 +1814,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="B11" s="19" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>30</v>
@@ -1828,7 +1840,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="B12" s="19" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>30</v>
@@ -1854,7 +1866,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="B13" s="19" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>30</v>
@@ -1878,7 +1890,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="B14" s="19" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>30</v>
@@ -1902,7 +1914,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="B15" s="19" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>24</v>
@@ -1928,7 +1940,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="B16" s="19" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>24</v>
@@ -1954,7 +1966,7 @@
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="19" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>24</v>
@@ -1980,7 +1992,7 @@
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="19" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>24</v>
@@ -2006,7 +2018,7 @@
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="19" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>24</v>
@@ -2032,7 +2044,7 @@
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="19" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>30</v>
@@ -2056,7 +2068,7 @@
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="19" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>30</v>
@@ -2080,7 +2092,7 @@
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="19" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>30</v>
@@ -2106,7 +2118,7 @@
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="19" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>30</v>
@@ -2132,7 +2144,7 @@
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="19" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>30</v>
@@ -2156,7 +2168,7 @@
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>30</v>
@@ -2182,7 +2194,7 @@
     </row>
     <row r="26" spans="2:9" ht="18.75" customHeight="1">
       <c r="B26" s="19" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>30</v>
@@ -2208,7 +2220,7 @@
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="19" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>30</v>
@@ -2232,7 +2244,7 @@
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="19" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>30</v>
@@ -2256,7 +2268,7 @@
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="19" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>30</v>
@@ -2280,7 +2292,7 @@
     </row>
     <row r="30" spans="2:9">
       <c r="B30" s="19" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>24</v>
@@ -2304,7 +2316,7 @@
     </row>
     <row r="31" spans="2:9">
       <c r="B31" s="19" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>24</v>
@@ -2328,7 +2340,7 @@
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="19" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>24</v>
@@ -2352,7 +2364,7 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="19" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>24</v>
@@ -2376,7 +2388,7 @@
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="19" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>24</v>
@@ -2641,7 +2653,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -2651,8 +2663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G130"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:G5"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E121" sqref="E121:E130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5271,7 +5283,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5281,7 +5293,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="18.75"/>
@@ -5373,7 +5385,7 @@
       <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="20" t="s">
         <v>107</v>
       </c>
       <c r="C6" s="13" t="s">
@@ -5443,8 +5455,8 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="B11" s="18" t="s">
-        <v>112</v>
+      <c r="B11" s="20" t="s">
+        <v>141</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>98</v>
@@ -5457,8 +5469,8 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="B12" s="18" t="s">
-        <v>113</v>
+      <c r="B12" s="20" t="s">
+        <v>142</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>99</v>
@@ -5471,8 +5483,8 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="B13" s="18" t="s">
-        <v>114</v>
+      <c r="B13" s="20" t="s">
+        <v>140</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>100</v>
@@ -5485,7 +5497,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>